--- a/Base/Teams/Steelers/Target Depth Data.xlsx
+++ b/Base/Teams/Steelers/Target Depth Data.xlsx
@@ -427,19 +427,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>541</v>
+        <v>564</v>
       </c>
       <c r="C2">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="D2">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E2">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="C2">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="D2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>4</v>

--- a/Base/Teams/Steelers/Target Depth Data.xlsx
+++ b/Base/Teams/Steelers/Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>384</v>
+        <v>418</v>
       </c>
       <c r="C3">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="D3">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E3">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -529,22 +529,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>425</v>
+        <v>448</v>
       </c>
       <c r="C3">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="D3">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Steelers/Target Depth Data.xlsx
+++ b/Base/Teams/Steelers/Target Depth Data.xlsx
@@ -427,13 +427,13 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="C2">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="D2">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E2">
         <v>46</v>
@@ -442,7 +442,7 @@
         <v>8</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="C2">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="D2">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E2">
         <v>30</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>4</v>

--- a/Base/Teams/Steelers/Target Depth Data.xlsx
+++ b/Base/Teams/Steelers/Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>418</v>
+        <v>456</v>
       </c>
       <c r="C3">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="D3">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F3">
         <v>6</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>448</v>
+        <v>470</v>
       </c>
       <c r="C3">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="D3">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E3">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F3">
         <v>6</v>

--- a/Base/Teams/Steelers/Target Depth Data.xlsx
+++ b/Base/Teams/Steelers/Target Depth Data.xlsx
@@ -427,19 +427,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>587</v>
+        <v>628</v>
       </c>
       <c r="C2">
-        <v>426</v>
+        <v>450</v>
       </c>
       <c r="D2">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E2">
         <v>46</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>380</v>
+        <v>411</v>
       </c>
       <c r="C2">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="D2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Steelers/Target Depth Data.xlsx
+++ b/Base/Teams/Steelers/Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>456</v>
+        <v>530</v>
       </c>
       <c r="C3">
-        <v>311</v>
+        <v>367</v>
       </c>
       <c r="D3">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="E3">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -529,22 +529,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>470</v>
+        <v>524</v>
       </c>
       <c r="C3">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="D3">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="E3">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
